--- a/assets/ghg.xlsx
+++ b/assets/ghg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irems\Desktop\Doktora\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\irems\Documents\GitHub\emu660-spring2024-iremshasturk\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769DF346-4381-451D-907C-8DECD6FA40FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E53ED6-6048-42A9-B56C-D6B87ECEAA54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="17685" windowHeight="11175" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Total Emissions</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Waste</t>
+  </si>
+  <si>
+    <t>Sector</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -369,6 +372,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
       <c r="B1">
         <v>2015</v>
       </c>
